--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/10/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.70589999999998</v>
+        <v>-20.63289999999998</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-22.0208</v>
+        <v>-22.02970000000001</v>
       </c>
       <c r="B7" t="n">
-        <v>4.662500000000001</v>
+        <v>4.515900000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.971699999999996</v>
+        <v>4.992999999999997</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.91460000000001</v>
+        <v>-21.97890000000002</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.4524</v>
+        <v>16.443</v>
       </c>
     </row>
     <row r="17">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.3749</v>
+        <v>16.3484</v>
       </c>
     </row>
     <row r="20">
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>10.30050000000001</v>
+        <v>10.1033</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -805,7 +805,7 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>10.2679</v>
+        <v>9.916199999999998</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.770600000000004</v>
+        <v>8.999500000000005</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.07159999999999</v>
+        <v>-22.12729999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.30029999999996</v>
+        <v>-21.28309999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.13949999999999</v>
+        <v>-21.12769999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,7 +1009,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>10.07690000000001</v>
+        <v>9.931600000000008</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>16.34470000000001</v>
+        <v>16.39050000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.97469999999999</v>
+        <v>-20.27709999999999</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1162,7 +1162,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>5.982500000000003</v>
+        <v>5.855</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>4.905200000000002</v>
+        <v>4.894000000000002</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1222,7 +1222,7 @@
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>17.04689999999999</v>
+        <v>17.03799999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1281,7 +1281,7 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>5.136499999999995</v>
+        <v>5.083099999999996</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.33309999999999</v>
+        <v>16.2823</v>
       </c>
     </row>
     <row r="51">
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.705800000000002</v>
+        <v>5.691799999999997</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.07439999999998</v>
+        <v>-22.10809999999999</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.35550000000001</v>
+        <v>-22.42230000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.46459999999999</v>
+        <v>-21.4306</v>
       </c>
       <c r="B66" t="n">
-        <v>5.372699999999996</v>
+        <v>5.754199999999996</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.820999999999995</v>
+        <v>5.318499999999998</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.981400000000006</v>
+        <v>10.02830000000001</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.2764</v>
+        <v>5.356899999999999</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>4.866499999999998</v>
+        <v>4.598599999999998</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>17.89240000000002</v>
+        <v>17.72680000000001</v>
       </c>
     </row>
     <row r="96">
@@ -2080,7 +2080,7 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>5.926699999999999</v>
+        <v>5.624799999999997</v>
       </c>
       <c r="C97" t="n">
         <v>-13.93</v>
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.44250000000001</v>
+        <v>16.54449999999999</v>
       </c>
     </row>
     <row r="98">
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.8826</v>
+        <v>-22.0247</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
